--- a/dados/04_LABORATORIO REGRESSAO COM DADOS 03_DADOS.xlsx
+++ b/dados/04_LABORATORIO REGRESSAO COM DADOS 03_DADOS.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10111"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u009165/Downloads/AULA 04-20220927/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94D774A-77B8-C84A-B4C3-B7C2E7029FE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="21900" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="320" yWindow="80" windowWidth="18880" windowHeight="7340" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="HOUSE_PRICE" sheetId="2" r:id="rId1"/>
@@ -18,19 +12,7 @@
     <sheet name="SALES_X_YOUTUBE" sheetId="1" r:id="rId3"/>
     <sheet name="CREDIT SCORE X RENDA E OUTRAS V" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -148,7 +130,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -627,62 +609,60 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Ênfase6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Ênfase6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Ênfase6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Bom" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Célula de Verificação" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Célula Vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Ênfase1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Ênfase2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Ênfase3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Ênfase4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Ênfase5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Ênfase6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Incorreto" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Neutra" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Nota" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Saída" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Texto de Aviso" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="Texto Explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Título 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Título 4" xfId="5" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -693,25 +673,19 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>290538</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>506438</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>146343</xdr:rowOff>
+      <xdr:rowOff>108243</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000003000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -729,8 +703,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="1130300" y="419100"/>
-          <a:ext cx="6564338" cy="3918243"/>
+          <a:off x="609600" y="368300"/>
+          <a:ext cx="5992838" cy="3791243"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -782,13 +756,7 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="2" name="Picture 2"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
@@ -843,9 +811,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Escritório">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -883,9 +851,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Escritório">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -918,26 +886,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -970,26 +921,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Escritório">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1162,19 +1096,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="1" max="1" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -1182,7 +1116,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>245</v>
       </c>
@@ -1199,7 +1133,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>312</v>
       </c>
@@ -1213,7 +1147,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>279</v>
       </c>
@@ -1221,7 +1155,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>308</v>
       </c>
@@ -1229,7 +1163,7 @@
         <v>1875</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>199</v>
       </c>
@@ -1237,7 +1171,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>219</v>
       </c>
@@ -1245,7 +1179,7 @@
         <v>1550</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>405</v>
       </c>
@@ -1253,7 +1187,7 @@
         <v>2350</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>324</v>
       </c>
@@ -1261,7 +1195,7 @@
         <v>2450</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>319</v>
       </c>
@@ -1269,7 +1203,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>255</v>
       </c>
@@ -1283,30 +1217,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C2:Y19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="R19" sqref="R19"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:AB1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="17" max="17" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.6640625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="3:25" x14ac:dyDescent="0.35">
       <c r="C2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="3" spans="3:25" x14ac:dyDescent="0.35">
       <c r="M3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="3:25" x14ac:dyDescent="0.35">
       <c r="P4" t="s">
         <v>24</v>
       </c>
@@ -1316,26 +1246,26 @@
       <c r="R4" t="s">
         <v>33</v>
       </c>
-      <c r="T4" t="s">
+      <c r="T4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="U4" t="s">
+      <c r="U4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="V4" t="s">
+      <c r="V4" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="W4" t="s">
+      <c r="W4" s="2" t="s">
         <v>27</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Y4" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="3:25" x14ac:dyDescent="0.35">
       <c r="P5">
         <v>1982</v>
       </c>
@@ -1364,7 +1294,7 @@
         <v>3129.7061892050833</v>
       </c>
     </row>
-    <row r="6" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="3:25" x14ac:dyDescent="0.35">
       <c r="P6">
         <f>P5+1</f>
         <v>1983</v>
@@ -1394,7 +1324,7 @@
         <v>3258.0284970345674</v>
       </c>
     </row>
-    <row r="7" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="3:25" x14ac:dyDescent="0.35">
       <c r="P7">
         <f t="shared" ref="P7:P19" si="0">P6+1</f>
         <v>1984</v>
@@ -1424,7 +1354,7 @@
         <v>3493.8534447983707</v>
       </c>
     </row>
-    <row r="8" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="3:25" x14ac:dyDescent="0.35">
       <c r="P8">
         <f t="shared" si="0"/>
         <v>1985</v>
@@ -1454,7 +1384,7 @@
         <v>3622.6873946489663</v>
       </c>
     </row>
-    <row r="9" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="3:25" x14ac:dyDescent="0.35">
       <c r="P9">
         <f t="shared" si="0"/>
         <v>1986</v>
@@ -1484,7 +1414,7 @@
         <v>3738.202950314625</v>
       </c>
     </row>
-    <row r="10" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="3:25" x14ac:dyDescent="0.35">
       <c r="P10">
         <f t="shared" si="0"/>
         <v>1987</v>
@@ -1514,7 +1444,7 @@
         <v>3852.1915400273215</v>
       </c>
     </row>
-    <row r="11" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="3:25" x14ac:dyDescent="0.35">
       <c r="P11">
         <f t="shared" si="0"/>
         <v>1988</v>
@@ -1544,7 +1474,7 @@
         <v>4004.4075202393788</v>
       </c>
     </row>
-    <row r="12" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="12" spans="3:25" x14ac:dyDescent="0.35">
       <c r="P12">
         <f t="shared" si="0"/>
         <v>1989</v>
@@ -1574,7 +1504,7 @@
         <v>4143.5421354744458</v>
       </c>
     </row>
-    <row r="13" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="13" spans="3:25" x14ac:dyDescent="0.35">
       <c r="P13">
         <f t="shared" si="0"/>
         <v>1990</v>
@@ -1604,7 +1534,7 @@
         <v>4196.1344021067607</v>
       </c>
     </row>
-    <row r="14" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="14" spans="3:25" x14ac:dyDescent="0.35">
       <c r="P14">
         <f t="shared" si="0"/>
         <v>1991</v>
@@ -1634,7 +1564,7 @@
         <v>4155.8553981166333</v>
       </c>
     </row>
-    <row r="15" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="3:25" x14ac:dyDescent="0.35">
       <c r="P15">
         <f>P14+1</f>
         <v>1992</v>
@@ -1664,7 +1594,7 @@
         <v>4272.7128433901225</v>
       </c>
     </row>
-    <row r="16" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="16" spans="3:25" x14ac:dyDescent="0.35">
       <c r="P16">
         <f t="shared" si="0"/>
         <v>1993</v>
@@ -1694,7 +1624,7 @@
         <v>4375.6856842927345</v>
       </c>
     </row>
-    <row r="17" spans="16:25" x14ac:dyDescent="0.2">
+    <row r="17" spans="16:25" x14ac:dyDescent="0.35">
       <c r="P17">
         <f t="shared" si="0"/>
         <v>1994</v>
@@ -1724,7 +1654,7 @@
         <v>4532.7258575668793</v>
       </c>
     </row>
-    <row r="18" spans="16:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="16:25" x14ac:dyDescent="0.35">
       <c r="P18">
         <f>P17+1</f>
         <v>1995</v>
@@ -1754,7 +1684,7 @@
         <v>4626.1871130939244</v>
       </c>
     </row>
-    <row r="19" spans="16:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="16:25" x14ac:dyDescent="0.35">
       <c r="P19">
         <f t="shared" si="0"/>
         <v>1996</v>
@@ -1791,16 +1721,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -1814,7 +1744,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1834,7 +1764,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1857,7 +1787,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1880,7 +1810,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1897,7 +1827,7 @@
         <v>22.2</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1914,7 +1844,7 @@
         <v>15.48</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1931,7 +1861,7 @@
         <v>8.64</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1948,7 +1878,7 @@
         <v>14.16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1965,7 +1895,7 @@
         <v>15.84</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1982,7 +1912,7 @@
         <v>5.76</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1999,7 +1929,7 @@
         <v>12.72</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2016,7 +1946,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2033,7 +1963,7 @@
         <v>20.88</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2050,7 +1980,7 @@
         <v>11.04</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2067,7 +1997,7 @@
         <v>11.64</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2084,7 +2014,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2101,7 +2031,7 @@
         <v>26.88</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2118,7 +2048,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2135,7 +2065,7 @@
         <v>29.28</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2152,7 +2082,7 @@
         <v>13.56</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2169,7 +2099,7 @@
         <v>17.52</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2186,7 +2116,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2203,7 +2133,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2220,7 +2150,7 @@
         <v>6.72</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>24</v>
       </c>
@@ -2237,7 +2167,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>25</v>
       </c>
@@ -2254,7 +2184,7 @@
         <v>11.64</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>26</v>
       </c>
@@ -2271,7 +2201,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>27</v>
       </c>
@@ -2288,7 +2218,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>28</v>
       </c>
@@ -2305,7 +2235,7 @@
         <v>19.079999999999998</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>29</v>
       </c>
@@ -2322,7 +2252,7 @@
         <v>22.68</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>30</v>
       </c>
@@ -2339,7 +2269,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>31</v>
       </c>
@@ -2356,7 +2286,7 @@
         <v>25.68</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>32</v>
       </c>
@@ -2373,7 +2303,7 @@
         <v>14.28</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>33</v>
       </c>
@@ -2390,7 +2320,7 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>34</v>
       </c>
@@ -2407,7 +2337,7 @@
         <v>20.88</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>35</v>
       </c>
@@ -2424,7 +2354,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>36</v>
       </c>
@@ -2441,7 +2371,7 @@
         <v>15.36</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>37</v>
       </c>
@@ -2458,7 +2388,7 @@
         <v>30.48</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>38</v>
       </c>
@@ -2475,7 +2405,7 @@
         <v>17.64</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>39</v>
       </c>
@@ -2492,7 +2422,7 @@
         <v>12.12</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>40</v>
       </c>
@@ -2509,7 +2439,7 @@
         <v>25.8</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>41</v>
       </c>
@@ -2526,7 +2456,7 @@
         <v>19.920000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>42</v>
       </c>
@@ -2543,7 +2473,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>43</v>
       </c>
@@ -2560,7 +2490,7 @@
         <v>24.84</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>44</v>
       </c>
@@ -2577,7 +2507,7 @@
         <v>15.48</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>45</v>
       </c>
@@ -2594,7 +2524,7 @@
         <v>10.199999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>46</v>
       </c>
@@ -2611,7 +2541,7 @@
         <v>17.88</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>47</v>
       </c>
@@ -2628,7 +2558,7 @@
         <v>12.72</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>48</v>
       </c>
@@ -2645,7 +2575,7 @@
         <v>27.84</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>49</v>
       </c>
@@ -2662,7 +2592,7 @@
         <v>17.760000000000002</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>50</v>
       </c>
@@ -2679,7 +2609,7 @@
         <v>11.64</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>51</v>
       </c>
@@ -2696,7 +2626,7 @@
         <v>13.68</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>52</v>
       </c>
@@ -2713,7 +2643,7 @@
         <v>12.84</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>53</v>
       </c>
@@ -2730,7 +2660,7 @@
         <v>27.12</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>54</v>
       </c>
@@ -2747,7 +2677,7 @@
         <v>25.44</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>55</v>
       </c>
@@ -2764,7 +2694,7 @@
         <v>24.24</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>56</v>
       </c>
@@ -2781,7 +2711,7 @@
         <v>28.44</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>57</v>
       </c>
@@ -2798,7 +2728,7 @@
         <v>6.6</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>58</v>
       </c>
@@ -2815,7 +2745,7 @@
         <v>15.84</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>59</v>
       </c>
@@ -2832,7 +2762,7 @@
         <v>28.56</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>60</v>
       </c>
@@ -2849,7 +2779,7 @@
         <v>22.08</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>61</v>
       </c>
@@ -2866,7 +2796,7 @@
         <v>9.7200000000000006</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>62</v>
       </c>
@@ -2883,7 +2813,7 @@
         <v>29.04</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>63</v>
       </c>
@@ -2900,7 +2830,7 @@
         <v>18.84</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>64</v>
       </c>
@@ -2917,7 +2847,7 @@
         <v>16.8</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>65</v>
       </c>
@@ -2934,7 +2864,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>66</v>
       </c>
@@ -2951,7 +2881,7 @@
         <v>11.16</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>67</v>
       </c>
@@ -2968,7 +2898,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>68</v>
       </c>
@@ -2985,7 +2915,7 @@
         <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>69</v>
       </c>
@@ -3002,7 +2932,7 @@
         <v>22.68</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>70</v>
       </c>
@@ -3019,7 +2949,7 @@
         <v>26.76</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>71</v>
       </c>
@@ -3036,7 +2966,7 @@
         <v>21.96</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>72</v>
       </c>
@@ -3053,7 +2983,7 @@
         <v>14.88</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>73</v>
       </c>
@@ -3070,7 +3000,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>74</v>
       </c>
@@ -3087,7 +3017,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>75</v>
       </c>
@@ -3104,7 +3034,7 @@
         <v>20.399999999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>76</v>
       </c>
@@ -3121,7 +3051,7 @@
         <v>10.44</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>77</v>
       </c>
@@ -3138,7 +3068,7 @@
         <v>8.2799999999999994</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>78</v>
       </c>
@@ -3155,7 +3085,7 @@
         <v>17.04</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>79</v>
       </c>
@@ -3172,7 +3102,7 @@
         <v>6.36</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>80</v>
       </c>
@@ -3189,7 +3119,7 @@
         <v>13.2</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>81</v>
       </c>
@@ -3206,7 +3136,7 @@
         <v>14.16</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>82</v>
       </c>
@@ -3223,7 +3153,7 @@
         <v>14.76</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>83</v>
       </c>
@@ -3240,7 +3170,7 @@
         <v>13.56</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>84</v>
       </c>
@@ -3257,7 +3187,7 @@
         <v>16.32</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>85</v>
       </c>
@@ -3274,7 +3204,7 @@
         <v>26.04</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>86</v>
       </c>
@@ -3291,7 +3221,7 @@
         <v>18.239999999999998</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>87</v>
       </c>
@@ -3308,7 +3238,7 @@
         <v>14.4</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>88</v>
       </c>
@@ -3325,7 +3255,7 @@
         <v>19.2</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>89</v>
       </c>
@@ -3342,7 +3272,7 @@
         <v>15.48</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>90</v>
       </c>
@@ -3359,7 +3289,7 @@
         <v>20.04</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>91</v>
       </c>
@@ -3376,7 +3306,7 @@
         <v>13.44</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>92</v>
       </c>
@@ -3393,7 +3323,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>93</v>
       </c>
@@ -3410,7 +3340,7 @@
         <v>23.28</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>94</v>
       </c>
@@ -3427,7 +3357,7 @@
         <v>26.64</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>95</v>
       </c>
@@ -3444,7 +3374,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>96</v>
       </c>
@@ -3461,7 +3391,7 @@
         <v>20.28</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>97</v>
       </c>
@@ -3478,7 +3408,7 @@
         <v>14.04</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>98</v>
       </c>
@@ -3495,7 +3425,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>99</v>
       </c>
@@ -3512,7 +3442,7 @@
         <v>30.48</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>100</v>
       </c>
@@ -3529,7 +3459,7 @@
         <v>20.64</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>101</v>
       </c>
@@ -3546,7 +3476,7 @@
         <v>14.04</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>102</v>
       </c>
@@ -3563,7 +3493,7 @@
         <v>28.56</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>103</v>
       </c>
@@ -3580,7 +3510,7 @@
         <v>17.760000000000002</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>104</v>
       </c>
@@ -3597,7 +3527,7 @@
         <v>17.64</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>105</v>
       </c>
@@ -3614,7 +3544,7 @@
         <v>24.84</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>106</v>
       </c>
@@ -3631,7 +3561,7 @@
         <v>23.04</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>107</v>
       </c>
@@ -3648,7 +3578,7 @@
         <v>8.64</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>108</v>
       </c>
@@ -3665,7 +3595,7 @@
         <v>10.44</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>109</v>
       </c>
@@ -3682,7 +3612,7 @@
         <v>6.36</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>110</v>
       </c>
@@ -3699,7 +3629,7 @@
         <v>23.76</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>111</v>
       </c>
@@ -3716,7 +3646,7 @@
         <v>16.079999999999998</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>112</v>
       </c>
@@ -3733,7 +3663,7 @@
         <v>26.16</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>113</v>
       </c>
@@ -3750,7 +3680,7 @@
         <v>16.920000000000002</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>114</v>
       </c>
@@ -3767,7 +3697,7 @@
         <v>19.079999999999998</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>115</v>
       </c>
@@ -3784,7 +3714,7 @@
         <v>17.52</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>116</v>
       </c>
@@ -3801,7 +3731,7 @@
         <v>15.12</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>117</v>
       </c>
@@ -3818,7 +3748,7 @@
         <v>14.64</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>118</v>
       </c>
@@ -3835,7 +3765,7 @@
         <v>11.28</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>119</v>
       </c>
@@ -3852,7 +3782,7 @@
         <v>19.079999999999998</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>120</v>
       </c>
@@ -3869,7 +3799,7 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>121</v>
       </c>
@@ -3886,7 +3816,7 @@
         <v>18.600000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>122</v>
       </c>
@@ -3903,7 +3833,7 @@
         <v>8.4</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>123</v>
       </c>
@@ -3920,7 +3850,7 @@
         <v>13.92</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>124</v>
       </c>
@@ -3937,7 +3867,7 @@
         <v>18.239999999999998</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>125</v>
       </c>
@@ -3954,7 +3884,7 @@
         <v>23.64</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>126</v>
       </c>
@@ -3971,7 +3901,7 @@
         <v>12.72</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>127</v>
       </c>
@@ -3988,7 +3918,7 @@
         <v>7.92</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>128</v>
       </c>
@@ -4005,7 +3935,7 @@
         <v>10.56</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>129</v>
       </c>
@@ -4022,7 +3952,7 @@
         <v>29.64</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>130</v>
       </c>
@@ -4039,7 +3969,7 @@
         <v>11.64</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>131</v>
       </c>
@@ -4056,7 +3986,7 @@
         <v>1.92</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>132</v>
       </c>
@@ -4073,7 +4003,7 @@
         <v>15.24</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>133</v>
       </c>
@@ -4090,7 +4020,7 @@
         <v>6.84</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>134</v>
       </c>
@@ -4107,7 +4037,7 @@
         <v>23.52</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>135</v>
       </c>
@@ -4124,7 +4054,7 @@
         <v>12.96</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>136</v>
       </c>
@@ -4141,7 +4071,7 @@
         <v>13.92</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>137</v>
       </c>
@@ -4158,7 +4088,7 @@
         <v>11.4</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>138</v>
       </c>
@@ -4175,7 +4105,7 @@
         <v>24.96</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>139</v>
       </c>
@@ -4192,7 +4122,7 @@
         <v>11.52</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>140</v>
       </c>
@@ -4209,7 +4139,7 @@
         <v>24.84</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>141</v>
       </c>
@@ -4226,7 +4156,7 @@
         <v>13.08</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>142</v>
       </c>
@@ -4243,7 +4173,7 @@
         <v>23.04</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>143</v>
       </c>
@@ -4260,7 +4190,7 @@
         <v>24.12</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>144</v>
       </c>
@@ -4277,7 +4207,7 @@
         <v>12.48</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>145</v>
       </c>
@@ -4294,7 +4224,7 @@
         <v>13.68</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>146</v>
       </c>
@@ -4311,7 +4241,7 @@
         <v>12.36</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>147</v>
       </c>
@@ -4328,7 +4258,7 @@
         <v>15.84</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>148</v>
       </c>
@@ -4345,7 +4275,7 @@
         <v>30.48</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>149</v>
       </c>
@@ -4362,7 +4292,7 @@
         <v>13.08</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>150</v>
       </c>
@@ -4379,7 +4309,7 @@
         <v>12.12</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>151</v>
       </c>
@@ -4396,7 +4326,7 @@
         <v>19.32</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>152</v>
       </c>
@@ -4413,7 +4343,7 @@
         <v>13.92</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>153</v>
       </c>
@@ -4430,7 +4360,7 @@
         <v>19.920000000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>154</v>
       </c>
@@ -4447,7 +4377,7 @@
         <v>22.8</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>155</v>
       </c>
@@ -4464,7 +4394,7 @@
         <v>18.72</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>156</v>
       </c>
@@ -4481,7 +4411,7 @@
         <v>3.84</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>157</v>
       </c>
@@ -4498,7 +4428,7 @@
         <v>18.36</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>158</v>
       </c>
@@ -4515,7 +4445,7 @@
         <v>12.12</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>159</v>
       </c>
@@ -4532,7 +4462,7 @@
         <v>8.76</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>160</v>
       </c>
@@ -4549,7 +4479,7 @@
         <v>15.48</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>161</v>
       </c>
@@ -4566,7 +4496,7 @@
         <v>17.28</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>162</v>
       </c>
@@ -4583,7 +4513,7 @@
         <v>15.96</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>163</v>
       </c>
@@ -4600,7 +4530,7 @@
         <v>17.88</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>164</v>
       </c>
@@ -4617,7 +4547,7 @@
         <v>21.6</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>165</v>
       </c>
@@ -4634,7 +4564,7 @@
         <v>14.28</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>166</v>
       </c>
@@ -4651,7 +4581,7 @@
         <v>14.28</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>167</v>
       </c>
@@ -4668,7 +4598,7 @@
         <v>9.6</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>168</v>
       </c>
@@ -4685,7 +4615,7 @@
         <v>14.64</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>169</v>
       </c>
@@ -4702,7 +4632,7 @@
         <v>20.52</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>170</v>
       </c>
@@ -4719,7 +4649,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>171</v>
       </c>
@@ -4736,7 +4666,7 @@
         <v>10.08</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>172</v>
       </c>
@@ -4753,7 +4683,7 @@
         <v>17.399999999999999</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>173</v>
       </c>
@@ -4770,7 +4700,7 @@
         <v>9.1199999999999992</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>174</v>
       </c>
@@ -4787,7 +4717,7 @@
         <v>14.04</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>175</v>
       </c>
@@ -4804,7 +4734,7 @@
         <v>13.8</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>176</v>
       </c>
@@ -4821,7 +4751,7 @@
         <v>32.4</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>177</v>
       </c>
@@ -4838,7 +4768,7 @@
         <v>24.24</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>178</v>
       </c>
@@ -4855,7 +4785,7 @@
         <v>14.04</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>179</v>
       </c>
@@ -4872,7 +4802,7 @@
         <v>14.16</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>180</v>
       </c>
@@ -4889,7 +4819,7 @@
         <v>15.12</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>181</v>
       </c>
@@ -4906,7 +4836,7 @@
         <v>12.6</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>182</v>
       </c>
@@ -4923,7 +4853,7 @@
         <v>14.64</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>183</v>
       </c>
@@ -4940,7 +4870,7 @@
         <v>10.44</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>184</v>
       </c>
@@ -4957,7 +4887,7 @@
         <v>31.44</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>185</v>
       </c>
@@ -4974,7 +4904,7 @@
         <v>21.12</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>186</v>
       </c>
@@ -4991,7 +4921,7 @@
         <v>27.12</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>187</v>
       </c>
@@ -5008,7 +4938,7 @@
         <v>12.36</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>188</v>
       </c>
@@ -5025,7 +4955,7 @@
         <v>20.76</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>189</v>
       </c>
@@ -5042,7 +4972,7 @@
         <v>19.079999999999998</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>190</v>
       </c>
@@ -5059,7 +4989,7 @@
         <v>8.0399999999999991</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>191</v>
       </c>
@@ -5076,7 +5006,7 @@
         <v>12.96</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>192</v>
       </c>
@@ -5093,7 +5023,7 @@
         <v>11.88</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>193</v>
       </c>
@@ -5110,7 +5040,7 @@
         <v>7.08</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>194</v>
       </c>
@@ -5127,7 +5057,7 @@
         <v>23.52</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>195</v>
       </c>
@@ -5144,7 +5074,7 @@
         <v>20.76</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>196</v>
       </c>
@@ -5161,7 +5091,7 @@
         <v>9.1199999999999992</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>197</v>
       </c>
@@ -5178,7 +5108,7 @@
         <v>11.64</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>198</v>
       </c>
@@ -5195,7 +5125,7 @@
         <v>15.36</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>199</v>
       </c>
@@ -5212,7 +5142,7 @@
         <v>30.6</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>200</v>
       </c>
@@ -5235,19 +5165,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:AA93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="16" max="16" width="17.6640625" customWidth="1"/>
+    <col min="16" max="16" width="17.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:27" x14ac:dyDescent="0.35">
       <c r="S1" t="s">
         <v>9</v>
       </c>
@@ -5273,7 +5203,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>7</v>
       </c>
@@ -5305,7 +5235,7 @@
         <v>0.97073468639966665</v>
       </c>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.35">
       <c r="N3" t="s">
         <v>20</v>
       </c>
@@ -5338,7 +5268,7 @@
         <v>0.99514309177326987</v>
       </c>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.35">
       <c r="N4" t="s">
         <v>8</v>
       </c>
@@ -5374,7 +5304,7 @@
         <v>0.51466273854670608</v>
       </c>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.35">
       <c r="N5" t="s">
         <v>10</v>
       </c>
@@ -5413,7 +5343,7 @@
         <v>0.93579680306671964</v>
       </c>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.35">
       <c r="N6" t="s">
         <v>12</v>
       </c>
@@ -5452,7 +5382,7 @@
         <v>0.46067976894552948</v>
       </c>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.35">
       <c r="N7" t="s">
         <v>14</v>
       </c>
@@ -5491,7 +5421,7 @@
         <v>2.5624338414527409E-2</v>
       </c>
     </row>
-    <row r="8" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:27" x14ac:dyDescent="0.35">
       <c r="R8">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -5521,7 +5451,7 @@
         <v>0.85899603717668538</v>
       </c>
     </row>
-    <row r="9" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:27" x14ac:dyDescent="0.35">
       <c r="R9">
         <f t="shared" si="0"/>
         <v>8</v>
@@ -5551,7 +5481,7 @@
         <v>0.22629001266455473</v>
       </c>
     </row>
-    <row r="10" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:27" x14ac:dyDescent="0.35">
       <c r="R10">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -5581,7 +5511,7 @@
         <v>0.97926540547045238</v>
       </c>
     </row>
-    <row r="11" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:27" x14ac:dyDescent="0.35">
       <c r="R11">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -5611,7 +5541,7 @@
         <v>0.99219011997186202</v>
       </c>
     </row>
-    <row r="12" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:27" x14ac:dyDescent="0.35">
       <c r="R12">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -5641,7 +5571,7 @@
         <v>0.99565535045021147</v>
       </c>
     </row>
-    <row r="13" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:27" x14ac:dyDescent="0.35">
       <c r="R13">
         <f t="shared" si="0"/>
         <v>12</v>
@@ -5671,7 +5601,7 @@
         <v>9.6798986338250501E-2</v>
       </c>
     </row>
-    <row r="14" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:27" x14ac:dyDescent="0.35">
       <c r="R14">
         <f t="shared" si="0"/>
         <v>13</v>
@@ -5701,7 +5631,7 @@
         <v>0.34194971291691678</v>
       </c>
     </row>
-    <row r="15" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:27" x14ac:dyDescent="0.35">
       <c r="R15">
         <f t="shared" si="0"/>
         <v>14</v>
@@ -5731,7 +5661,7 @@
         <v>1.6131197066441814E-2</v>
       </c>
     </row>
-    <row r="16" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:27" x14ac:dyDescent="0.35">
       <c r="R16">
         <f t="shared" si="0"/>
         <v>15</v>
@@ -5761,7 +5691,7 @@
         <v>6.2749495142376502E-2</v>
       </c>
     </row>
-    <row r="17" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="17" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R17">
         <f t="shared" si="0"/>
         <v>16</v>
@@ -5791,7 +5721,7 @@
         <v>0.76931999654909655</v>
       </c>
     </row>
-    <row r="18" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R18">
         <f t="shared" si="0"/>
         <v>17</v>
@@ -5821,7 +5751,7 @@
         <v>0.99463527234777849</v>
       </c>
     </row>
-    <row r="19" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R19">
         <f t="shared" si="0"/>
         <v>18</v>
@@ -5851,7 +5781,7 @@
         <v>0.99885940149452479</v>
       </c>
     </row>
-    <row r="20" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="20" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R20">
         <f t="shared" si="0"/>
         <v>19</v>
@@ -5881,7 +5811,7 @@
         <v>0.12916862034852572</v>
       </c>
     </row>
-    <row r="21" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R21">
         <f t="shared" si="0"/>
         <v>20</v>
@@ -5911,7 +5841,7 @@
         <v>2.5624338414527409E-2</v>
       </c>
     </row>
-    <row r="22" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R22">
         <f t="shared" si="0"/>
         <v>21</v>
@@ -5941,7 +5871,7 @@
         <v>0.73765620590975667</v>
       </c>
     </row>
-    <row r="23" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="23" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R23">
         <f t="shared" si="0"/>
         <v>22</v>
@@ -5971,7 +5901,7 @@
         <v>0.81207550041874133</v>
       </c>
     </row>
-    <row r="24" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R24">
         <f t="shared" si="0"/>
         <v>23</v>
@@ -6001,7 +5931,7 @@
         <v>0.99858320559376956</v>
       </c>
     </row>
-    <row r="25" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R25">
         <f t="shared" si="0"/>
         <v>24</v>
@@ -6031,7 +5961,7 @@
         <v>2.0971976539146803E-2</v>
       </c>
     </row>
-    <row r="26" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="26" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R26">
         <f t="shared" si="0"/>
         <v>25</v>
@@ -6061,7 +5991,7 @@
         <v>0.95404588567491566</v>
       </c>
     </row>
-    <row r="27" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R27">
         <f t="shared" si="0"/>
         <v>26</v>
@@ -6091,7 +6021,7 @@
         <v>0.82532565578739403</v>
       </c>
     </row>
-    <row r="28" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R28">
         <f t="shared" si="0"/>
         <v>27</v>
@@ -6121,7 +6051,7 @@
         <v>0.9845242576785147</v>
       </c>
     </row>
-    <row r="29" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="29" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R29">
         <f t="shared" si="0"/>
         <v>28</v>
@@ -6151,7 +6081,7 @@
         <v>6.1202172032154875E-2</v>
       </c>
     </row>
-    <row r="30" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="30" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R30">
         <f t="shared" si="0"/>
         <v>29</v>
@@ -6181,7 +6111,7 @@
         <v>4.8957078175337947E-2</v>
       </c>
     </row>
-    <row r="31" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="31" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R31">
         <f t="shared" si="0"/>
         <v>30</v>
@@ -6211,7 +6141,7 @@
         <v>8.6190546834467918E-2</v>
       </c>
     </row>
-    <row r="32" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="32" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R32">
         <f t="shared" si="0"/>
         <v>31</v>
@@ -6241,7 +6171,7 @@
         <v>0.92142521585242931</v>
       </c>
     </row>
-    <row r="33" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R33">
         <f t="shared" si="0"/>
         <v>32</v>
@@ -6271,7 +6201,7 @@
         <v>0.996186829038754</v>
       </c>
     </row>
-    <row r="34" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R34">
         <f t="shared" si="0"/>
         <v>33</v>
@@ -6301,7 +6231,7 @@
         <v>0.92967465563617613</v>
       </c>
     </row>
-    <row r="35" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="35" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R35">
         <f t="shared" si="0"/>
         <v>34</v>
@@ -6331,7 +6261,7 @@
         <v>0.97073468639966665</v>
       </c>
     </row>
-    <row r="36" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="36" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R36">
         <f t="shared" si="0"/>
         <v>35</v>
@@ -6361,7 +6291,7 @@
         <v>7.6817932284528032E-2</v>
       </c>
     </row>
-    <row r="37" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R37">
         <f t="shared" si="0"/>
         <v>36</v>
@@ -6391,7 +6321,7 @@
         <v>6.96077193442632E-2</v>
       </c>
     </row>
-    <row r="38" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R38">
         <f t="shared" si="0"/>
         <v>37</v>
@@ -6421,7 +6351,7 @@
         <v>0.96669560726860237</v>
       </c>
     </row>
-    <row r="39" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R39">
         <f t="shared" si="0"/>
         <v>38</v>
@@ -6451,7 +6381,7 @@
         <v>2.8644231735286529E-2</v>
       </c>
     </row>
-    <row r="40" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="40" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R40">
         <f t="shared" si="0"/>
         <v>39</v>
@@ -6481,7 +6411,7 @@
         <v>0.68493320737005359</v>
       </c>
     </row>
-    <row r="41" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="41" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R41">
         <f t="shared" si="0"/>
         <v>40</v>
@@ -6511,7 +6441,7 @@
         <v>0.83042690387197016</v>
       </c>
     </row>
-    <row r="42" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="42" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R42">
         <f t="shared" si="0"/>
         <v>41</v>
@@ -6541,7 +6471,7 @@
         <v>0.99395489231440781</v>
       </c>
     </row>
-    <row r="43" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="43" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R43">
         <f t="shared" si="0"/>
         <v>42</v>
@@ -6571,7 +6501,7 @@
         <v>0.41276979050605384</v>
       </c>
     </row>
-    <row r="44" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R44">
         <f t="shared" si="0"/>
         <v>43</v>
@@ -6601,7 +6531,7 @@
         <v>0.17492019923588087</v>
       </c>
     </row>
-    <row r="45" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R45">
         <f t="shared" si="0"/>
         <v>44</v>
@@ -6631,7 +6561,7 @@
         <v>0.59514094287988839</v>
       </c>
     </row>
-    <row r="46" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R46">
         <f t="shared" si="0"/>
         <v>45</v>
@@ -6661,7 +6591,7 @@
         <v>0.95824690695872816</v>
       </c>
     </row>
-    <row r="47" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R47">
         <f t="shared" si="0"/>
         <v>46</v>
@@ -6691,7 +6621,7 @@
         <v>0.97359194139682881</v>
       </c>
     </row>
-    <row r="48" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R48">
         <f t="shared" si="0"/>
         <v>47</v>
@@ -6721,7 +6651,7 @@
         <v>0.96969967082947994</v>
       </c>
     </row>
-    <row r="49" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R49">
         <f t="shared" si="0"/>
         <v>48</v>
@@ -6751,7 +6681,7 @@
         <v>0.98363274316076232</v>
       </c>
     </row>
-    <row r="50" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R50">
         <f t="shared" si="0"/>
         <v>49</v>
@@ -6781,7 +6711,7 @@
         <v>0.99818016994771952</v>
       </c>
     </row>
-    <row r="51" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="51" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R51">
         <f t="shared" si="0"/>
         <v>50</v>
@@ -6811,7 +6741,7 @@
         <v>0.82532565578739403</v>
       </c>
     </row>
-    <row r="52" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="52" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R52">
         <f t="shared" si="0"/>
         <v>51</v>
@@ -6841,7 +6771,7 @@
         <v>0.15960965468712709</v>
       </c>
     </row>
-    <row r="53" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R53">
         <f t="shared" si="0"/>
         <v>52</v>
@@ -6871,7 +6801,7 @@
         <v>3.9011597513761757E-2</v>
       </c>
     </row>
-    <row r="54" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="54" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R54">
         <f t="shared" si="0"/>
         <v>53</v>
@@ -6901,7 +6831,7 @@
         <v>0.11631821668079974</v>
       </c>
     </row>
-    <row r="55" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R55">
         <f t="shared" si="0"/>
         <v>54</v>
@@ -6931,7 +6861,7 @@
         <v>4.4416138195878196E-2</v>
       </c>
     </row>
-    <row r="56" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="56" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R56">
         <f t="shared" si="0"/>
         <v>55</v>
@@ -6961,7 +6891,7 @@
         <v>0.82532565578739403</v>
       </c>
     </row>
-    <row r="57" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="57" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R57">
         <f t="shared" si="0"/>
         <v>56</v>
@@ -6991,7 +6921,7 @@
         <v>0.92660756807420297</v>
       </c>
     </row>
-    <row r="58" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R58">
         <f t="shared" si="0"/>
         <v>57</v>
@@ -7021,7 +6951,7 @@
         <v>0.1969052571697425</v>
       </c>
     </row>
-    <row r="59" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R59">
         <f t="shared" si="0"/>
         <v>58</v>
@@ -7051,7 +6981,7 @@
         <v>0.1969052571697425</v>
       </c>
     </row>
-    <row r="60" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R60">
         <f t="shared" si="0"/>
         <v>59</v>
@@ -7081,7 +7011,7 @@
         <v>0.95824690695872816</v>
       </c>
     </row>
-    <row r="61" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R61">
         <f t="shared" si="0"/>
         <v>60</v>
@@ -7111,7 +7041,7 @@
         <v>0.35062519720344282</v>
       </c>
     </row>
-    <row r="62" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R62">
         <f t="shared" si="0"/>
         <v>61</v>
@@ -7141,7 +7071,7 @@
         <v>0.22167823941536793</v>
       </c>
     </row>
-    <row r="63" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R63">
         <f t="shared" si="0"/>
         <v>62</v>
@@ -7171,7 +7101,7 @@
         <v>0.1741686924414739</v>
       </c>
     </row>
-    <row r="64" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="64" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R64">
         <f t="shared" si="0"/>
         <v>63</v>
@@ -7201,7 +7131,7 @@
         <v>0.36628850454560458</v>
       </c>
     </row>
-    <row r="65" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="65" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R65">
         <f t="shared" si="0"/>
         <v>64</v>
@@ -7231,7 +7161,7 @@
         <v>0.99531317862525592</v>
       </c>
     </row>
-    <row r="66" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="66" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R66">
         <f t="shared" si="0"/>
         <v>65</v>
@@ -7261,7 +7191,7 @@
         <v>0.27823898685208209</v>
       </c>
     </row>
-    <row r="67" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R67">
         <f t="shared" si="0"/>
         <v>66</v>
@@ -7291,7 +7221,7 @@
         <v>6.1202172032154875E-2</v>
       </c>
     </row>
-    <row r="68" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="68" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R68">
         <f t="shared" ref="R68:R93" si="1">R67+1</f>
         <v>67</v>
@@ -7321,7 +7251,7 @@
         <v>0.98074825215362316</v>
       </c>
     </row>
-    <row r="69" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="69" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R69">
         <f t="shared" si="1"/>
         <v>68</v>
@@ -7351,7 +7281,7 @@
         <v>0.7411666474689198</v>
       </c>
     </row>
-    <row r="70" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="70" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R70">
         <f t="shared" si="1"/>
         <v>69</v>
@@ -7381,7 +7311,7 @@
         <v>0.92142521585242931</v>
       </c>
     </row>
-    <row r="71" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="71" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R71">
         <f t="shared" si="1"/>
         <v>70</v>
@@ -7411,7 +7341,7 @@
         <v>6.8178264954167164E-2</v>
       </c>
     </row>
-    <row r="72" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="72" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R72">
         <f t="shared" si="1"/>
         <v>71</v>
@@ -7441,7 +7371,7 @@
         <v>0.76341841694826462</v>
       </c>
     </row>
-    <row r="73" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="73" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R73">
         <f t="shared" si="1"/>
         <v>72</v>
@@ -7471,7 +7401,7 @@
         <v>0.99818016994771952</v>
       </c>
     </row>
-    <row r="74" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="74" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R74">
         <f t="shared" si="1"/>
         <v>73</v>
@@ -7501,7 +7431,7 @@
         <v>0.99514309177326987</v>
       </c>
     </row>
-    <row r="75" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="75" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R75">
         <f t="shared" si="1"/>
         <v>74</v>
@@ -7531,7 +7461,7 @@
         <v>0.27275994265607573</v>
       </c>
     </row>
-    <row r="76" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="76" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R76">
         <f t="shared" si="1"/>
         <v>75</v>
@@ -7561,7 +7491,7 @@
         <v>0.79187256991914778</v>
       </c>
     </row>
-    <row r="77" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R77">
         <f t="shared" si="1"/>
         <v>76</v>
@@ -7591,7 +7521,7 @@
         <v>0.65336526516988602</v>
       </c>
     </row>
-    <row r="78" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="78" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R78">
         <f t="shared" si="1"/>
         <v>77</v>
@@ -7621,7 +7551,7 @@
         <v>0.15499044073546128</v>
       </c>
     </row>
-    <row r="79" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="79" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R79">
         <f t="shared" si="1"/>
         <v>78</v>
@@ -7651,7 +7581,7 @@
         <v>2.5624338414527409E-2</v>
       </c>
     </row>
-    <row r="80" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R80">
         <f t="shared" si="1"/>
         <v>79</v>
@@ -7681,7 +7611,7 @@
         <v>0.98074825215362316</v>
       </c>
     </row>
-    <row r="81" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R81">
         <f t="shared" si="1"/>
         <v>80</v>
@@ -7711,7 +7641,7 @@
         <v>0.88596992763787985</v>
       </c>
     </row>
-    <row r="82" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R82">
         <f t="shared" si="1"/>
         <v>81</v>
@@ -7741,7 +7671,7 @@
         <v>0.97916556436530522</v>
       </c>
     </row>
-    <row r="83" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="83" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R83">
         <f t="shared" si="1"/>
         <v>82</v>
@@ -7771,7 +7701,7 @@
         <v>0.8176562227924058</v>
       </c>
     </row>
-    <row r="84" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R84">
         <f t="shared" si="1"/>
         <v>83</v>
@@ -7801,7 +7731,7 @@
         <v>0.15518858902833363</v>
       </c>
     </row>
-    <row r="85" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="85" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R85">
         <f t="shared" si="1"/>
         <v>84</v>
@@ -7831,7 +7761,7 @@
         <v>4.8957078175337947E-2</v>
       </c>
     </row>
-    <row r="86" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="86" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R86">
         <f t="shared" si="1"/>
         <v>85</v>
@@ -7861,7 +7791,7 @@
         <v>0.31377907191051574</v>
       </c>
     </row>
-    <row r="87" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="87" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R87">
         <f t="shared" si="1"/>
         <v>86</v>
@@ -7891,7 +7821,7 @@
         <v>7.5693429302873833E-3</v>
       </c>
     </row>
-    <row r="88" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="88" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R88">
         <f t="shared" si="1"/>
         <v>87</v>
@@ -7921,7 +7851,7 @@
         <v>0.62356322542514109</v>
       </c>
     </row>
-    <row r="89" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="89" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R89">
         <f t="shared" si="1"/>
         <v>88</v>
@@ -7951,7 +7881,7 @@
         <v>0.99395489231440781</v>
       </c>
     </row>
-    <row r="90" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R90">
         <f t="shared" si="1"/>
         <v>89</v>
@@ -7981,7 +7911,7 @@
         <v>0.92142521585242931</v>
       </c>
     </row>
-    <row r="91" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="91" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R91">
         <f t="shared" si="1"/>
         <v>90</v>
@@ -8011,7 +7941,7 @@
         <v>6.96077193442632E-2</v>
       </c>
     </row>
-    <row r="92" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R92">
         <f t="shared" si="1"/>
         <v>91</v>
@@ -8041,7 +7971,7 @@
         <v>0.92899348113808511</v>
       </c>
     </row>
-    <row r="93" spans="18:27" x14ac:dyDescent="0.2">
+    <row r="93" spans="18:27" x14ac:dyDescent="0.35">
       <c r="R93">
         <f t="shared" si="1"/>
         <v>92</v>
